--- a/controllers/CA_TEST/data/CA_test_0/CA_test_0_TEST_EASY/CA_test_0_TEST_EASY_Test_Result.xlsx
+++ b/controllers/CA_TEST/data/CA_test_0/CA_test_0_TEST_EASY/CA_test_0_TEST_EASY_Test_Result.xlsx
@@ -445,13 +445,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
